--- a/medicine/Enfance/Jacques_Azam/Jacques_Azam.xlsx
+++ b/medicine/Enfance/Jacques_Azam/Jacques_Azam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Azam, né en 1961 à Carmaux, est un auteur français de bande dessinée, illustrateur jeunesse et de presse.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Azam vit à Toulouse. Ses activités depuis 1994 portent sur les publications jeunesse, dans des magazines comme Les Clés de l'Actualité Junior[1]. Son premier album est, en 2003, Cultiver la fleur qui pue (et autres bêtises). Dans la veine humoristique, il a entrepris d'autres ouvrages comme Scoops à gogo[2] ainsi que la série Chico Mandarine, devenue ensuite Mandarine and Cow, qui est devenue une série d'animation en 2007.
-L'auteur, dont le trait est décrit comme « très jeté, spontané, [qui] peut ressembler à un dessin d'enfant »[3] s'inspire directement d'auteurs comme Jean-Marc Reiser, Claire Bretécher et Jean-Jacques Sempé. Le dessinateur admire les artistes « qui ont un trait explosé, lâché, « à l'arrache » ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Azam vit à Toulouse. Ses activités depuis 1994 portent sur les publications jeunesse, dans des magazines comme Les Clés de l'Actualité Junior. Son premier album est, en 2003, Cultiver la fleur qui pue (et autres bêtises). Dans la veine humoristique, il a entrepris d'autres ouvrages comme Scoops à gogo ainsi que la série Chico Mandarine, devenue ensuite Mandarine and Cow, qui est devenue une série d'animation en 2007.
+L'auteur, dont le trait est décrit comme « très jeté, spontané, [qui] peut ressembler à un dessin d'enfant » s'inspire directement d'auteurs comme Jean-Marc Reiser, Claire Bretécher et Jean-Jacques Sempé. Le dessinateur admire les artistes « qui ont un trait explosé, lâché, « à l'arrache » ».
 </t>
         </is>
       </c>
@@ -545,15 +559,58 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auteur et illustrateur
-Cultiver la fleur qui pue (et autres bêtises), scénario et dessins de Jacques Azam, Milan Éditions, 2003  (ISBN 2-7459-0777-8)
+          <t>Auteur et illustrateur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cultiver la fleur qui pue (et autres bêtises), scénario et dessins de Jacques Azam, Milan Éditions, 2003  (ISBN 2-7459-0777-8)
 Faxer une andouillette (et autres bêtises), scénario et dessins de Jacques Azam, Milan Éditions, 2003  (ISBN 2-7459-1226-7)
-Scoops à gogo, scénario et dessins de Jacques Azam, Delcourt, collection Shampooing, 2005  (ISBN 2-84789-882-4)[2]
+Scoops à gogo, scénario et dessins de Jacques Azam, Delcourt, collection Shampooing, 2005  (ISBN 2-84789-882-4)
 Scoops de pro, scénario et dessins de Jacques Azam, Delcourt, collection Shampooing, 2007  (ISBN 978-2-7560-0840-0)
- Les aventures de Hic : À bas la rentrée !, scénario et dessin de Jacques Azam, Milan, 2009
-Série Mandarine and Cow
-Chico Mandarine, scénario et dessins de Jacques Azam, Milan Éditions, collection Capsule cosmique à partir du tome 2
-Seul contre tous, 2004  (ISBN 2-74591-520-7)[4],[5]
+ Les aventures de Hic : À bas la rentrée !, scénario et dessin de Jacques Azam, Milan, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jacques_Azam</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Azam</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Quelques œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auteur et illustrateur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Mandarine and Cow</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chico Mandarine, scénario et dessins de Jacques Azam, Milan Éditions, collection Capsule cosmique à partir du tome 2
+Seul contre tous, 2004  (ISBN 2-74591-520-7),
 Si on rentrait à la maison ?, 2005  (ISBN 2-7459-1822-2)
 Plouf !, 2006  (ISBN 978-2-7459-2228-1)
 Mandarine &amp; Cow' scénario et dessins de Jacques Azam, Milan Éditions, collection Jeunesse
@@ -563,13 +620,47 @@
 Mandarine &amp; Cow (Nouvelle série), scénario et dessins de Jacques Azam, Bayard, collection BD Kids
 La belle affaire !, 2012  (ISBN 978-2-7459-5738-2)
 Le Bouchon de 7h59, 2013
-Panique dans les prés, 2013
-Illustrateur
-Liste non exhaustive
+Panique dans les prés, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jacques_Azam</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Azam</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Quelques œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Liste non exhaustive
 Les Biglettes de Timéo, texte de Thomas Scotto, ill. Jacques Azam, Épigones, 1998
 Zinzin des bois - Promenons-nous…, scénario de Jean-Louis Fonteneau, dessins de Jacques Azam, Milan Éditions, 2005  (ISBN 2-7459-1268-2)
 Ringo, le livreur de pizza, scénario de Catherine Romat, dessins de Jacques Azam, Milan Éditions, collection Petit Bonum
-La pizza qui rétrécit…, 2009  (ISBN 978-2-7459-3551-9) [6]
+La pizza qui rétrécit…, 2009  (ISBN 978-2-7459-3551-9) 
 L'Impitoyable Questionneur, texte de Arnaud Alméras, dessins de Jacques Azam, éditions Sarbacane, 2012
 Série Les Goûters philo, textes de divers auteurs, Milan
 une 50aine de titres, 2000 - 2017
@@ -580,69 +671,107 @@
 C'est quoi l'écologie ?, 2017
 C'est quoi les inégalités ?, 2018
 C'est quoi, le terrorisme ?, 2018
-C'est quoi la santé ?, 2020[7]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+C'est quoi la santé ?, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Jacques_Azam</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jacques_Azam</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Séries télévisuelles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1 jour, 1 question[8], illustrations de Jacques Azam, Milan presse et France Télévisions, 2014 - Aujourd'hui
-Mandarine and Cow
-Adaptation de sa série de bande dessinée jeunesse Mandarine &amp; Cow :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1 jour, 1 question, illustrations de Jacques Azam, Milan presse et France Télévisions, 2014 - Aujourd'hui</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jacques_Azam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Azam</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Séries télévisuelles</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mandarine and Cow</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Adaptation de sa série de bande dessinée jeunesse Mandarine &amp; Cow :
 Mandarine and Cow, série télévisée française, 2 saisons, diffusée depuis 2007 sur France 3
-Mandarine &amp; Cow. Volu-meuh 1 ,  Sony music,, 2014 ; 4 DVD, 8 heures, 66 épisodes</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+Mandarine &amp; Cow. Volu-meuh 1 ,  Sony music 2014 ; 4 DVD, 8 heures, 66 épisodes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Jacques_Azam</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jacques_Azam</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Prix Média Enfance Majuscule 2022 (Mention) dans la Catégorie Jeunesse pour la série 1 jour, 1 question</t>
         </is>
